--- a/result/with_base/234/valence/s04_5.xlsx
+++ b/result/with_base/234/valence/s04_5.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.7170758843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41705.322265625</v>
+        <v>11289.95166015625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7506818175315857</v>
+        <v>0.718487395959742</v>
       </c>
       <c r="E2" t="n">
-        <v>41702.73401988636</v>
+        <v>11288.09283088235</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8149999976158142</v>
+        <v>0.7550223171710968</v>
       </c>
       <c r="C3" t="n">
-        <v>40930.92578125</v>
+        <v>10985.4951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8351136391813104</v>
+        <v>0.7979910724303302</v>
       </c>
       <c r="E3" t="n">
-        <v>40930.01882102273</v>
+        <v>10983.2666015625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8174999952316284</v>
+        <v>0.7550223171710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40165.783203125</v>
+        <v>10687.43359375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8707954612645236</v>
+        <v>0.8194590351160835</v>
       </c>
       <c r="E4" t="n">
-        <v>40162.859375</v>
+        <v>10685.57634420956</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8575000166893005</v>
+        <v>0.7963169515132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39406.71484375</v>
+        <v>10395.3740234375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8994318084283308</v>
+        <v>0.839548317825093</v>
       </c>
       <c r="E5" t="n">
-        <v>39403.91583806818</v>
+        <v>10393.90441176471</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.8175223171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38657.25</v>
+        <v>10109.43701171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9288636391813104</v>
+        <v>0.8595719547832713</v>
       </c>
       <c r="E6" t="n">
-        <v>38655.26633522727</v>
+        <v>10108.04090073529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.7974330484867096</v>
       </c>
       <c r="C7" t="n">
-        <v>37921.306640625</v>
+        <v>9830.75439453125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9397727196866815</v>
+        <v>0.8610819332739886</v>
       </c>
       <c r="E7" t="n">
-        <v>37919.31782670454</v>
+        <v>9829.529641544117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9024999737739563</v>
+        <v>0.8470982015132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37197.240234375</v>
+        <v>9557.5390625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9478409019383517</v>
+        <v>0.898700104040258</v>
       </c>
       <c r="E8" t="n">
-        <v>37195.18927556818</v>
+        <v>9556.214556525736</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8949999809265137</v>
+        <v>0.8091517984867096</v>
       </c>
       <c r="C9" t="n">
-        <v>36485.58984375</v>
+        <v>9291.79833984375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9437499913302335</v>
+        <v>0.8805803586454952</v>
       </c>
       <c r="E9" t="n">
-        <v>36483.26313920454</v>
+        <v>9290.41756663603</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.8498883843421936</v>
       </c>
       <c r="C10" t="n">
-        <v>35783.939453125</v>
+        <v>9031.40087890625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9637500047683716</v>
+        <v>0.9012605057043188</v>
       </c>
       <c r="E10" t="n">
-        <v>35782.57066761364</v>
+        <v>9030.351505055147</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8510044515132904</v>
       </c>
       <c r="C11" t="n">
-        <v>35096.41015625</v>
+        <v>8777.6142578125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9647727283564481</v>
+        <v>0.9202993687461404</v>
       </c>
       <c r="E11" t="n">
-        <v>35094.39559659091</v>
+        <v>8776.68612132353</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.925000011920929</v>
+        <v>0.87109375</v>
       </c>
       <c r="C12" t="n">
-        <v>34421.595703125</v>
+        <v>8530.32373046875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9635227268392389</v>
+        <v>0.9242384468807894</v>
       </c>
       <c r="E12" t="n">
-        <v>34418.57457386364</v>
+        <v>8529.453929227941</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8755580484867096</v>
       </c>
       <c r="C13" t="n">
-        <v>33755.62109375</v>
+        <v>8289.109375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9759090922095559</v>
+        <v>0.9303440136068007</v>
       </c>
       <c r="E13" t="n">
-        <v>33753.95951704546</v>
+        <v>8288.23575367647</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8677455484867096</v>
       </c>
       <c r="C14" t="n">
-        <v>33103.203125</v>
+        <v>8054.197998046875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9731818220832131</v>
+        <v>0.9211528371362125</v>
       </c>
       <c r="E14" t="n">
-        <v>33101.59161931818</v>
+        <v>8053.27742991728</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8532366156578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32462.166015625</v>
+        <v>7824.986328125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9804545478387312</v>
+        <v>0.9384191176470589</v>
       </c>
       <c r="E15" t="n">
-        <v>32460.54900568182</v>
+        <v>7824.2333984375</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8677455484867096</v>
       </c>
       <c r="C16" t="n">
-        <v>31833.3115234375</v>
+        <v>7601.7060546875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9776136441664263</v>
+        <v>0.9455094547832713</v>
       </c>
       <c r="E16" t="n">
-        <v>31831.25603693182</v>
+        <v>7601.003532858456</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C17" t="n">
-        <v>31215.0830078125</v>
+        <v>7384.206787109375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9742045510898937</v>
+        <v>0.9436055667260114</v>
       </c>
       <c r="E17" t="n">
-        <v>31213.40358664773</v>
+        <v>7383.556439568015</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9375</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C18" t="n">
-        <v>30608.91015625</v>
+        <v>7172.35693359375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9550288880572599</v>
       </c>
       <c r="E18" t="n">
-        <v>30606.83362926136</v>
+        <v>7171.633013556985</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.85546875</v>
       </c>
       <c r="C19" t="n">
-        <v>30012.798828125</v>
+        <v>6966.426513671875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9109112409984365</v>
       </c>
       <c r="E19" t="n">
-        <v>30011.20827414773</v>
+        <v>6965.633616727941</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.8766741156578064</v>
       </c>
       <c r="C20" t="n">
-        <v>29428.201171875</v>
+        <v>6765.101318359375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9865909164602106</v>
+        <v>0.9495798314318937</v>
       </c>
       <c r="E20" t="n">
-        <v>29426.40092329546</v>
+        <v>6764.359892003677</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.8588169515132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28854.2880859375</v>
+        <v>6569.482421875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9840909242630005</v>
+        <v>0.9462972704102012</v>
       </c>
       <c r="E21" t="n">
-        <v>28852.24751420454</v>
+        <v>6568.710678998162</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28290.6796875</v>
+        <v>6378.601806640625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9826136448166587</v>
+        <v>0.9550288880572599</v>
       </c>
       <c r="E22" t="n">
-        <v>28288.607421875</v>
+        <v>6378.078785615809</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C23" t="n">
-        <v>27737.1884765625</v>
+        <v>6193.204833984375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9517463235294118</v>
       </c>
       <c r="E23" t="n">
-        <v>27735.28231534091</v>
+        <v>6192.573874080882</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8755580484867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27194.0341796875</v>
+        <v>6012.68115234375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9498424354721519</v>
       </c>
       <c r="E24" t="n">
-        <v>27192.19602272727</v>
+        <v>6012.05672679228</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C25" t="n">
-        <v>26660.650390625</v>
+        <v>5836.638916015625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9582457998219658</v>
       </c>
       <c r="E25" t="n">
-        <v>26659.06640625</v>
+        <v>5836.198874080882</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C26" t="n">
-        <v>26137.177734375</v>
+        <v>5665.4375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9692095588235294</v>
       </c>
       <c r="E26" t="n">
-        <v>26135.78888494318</v>
+        <v>5665.045122931985</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C27" t="n">
-        <v>25624.5224609375</v>
+        <v>5498.94091796875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.965401786215165</v>
       </c>
       <c r="E27" t="n">
-        <v>25622.26775568182</v>
+        <v>5498.486213235294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8794642984867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25120.001953125</v>
+        <v>5336.723388671875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9727547273916357</v>
       </c>
       <c r="E28" t="n">
-        <v>25118.18146306818</v>
+        <v>5336.360495174632</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24624.9345703125</v>
+        <v>5179.087646484375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9624474784907173</v>
       </c>
       <c r="E29" t="n">
-        <v>24623.30593039773</v>
+        <v>5178.665211397059</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C30" t="n">
-        <v>24139.138671875</v>
+        <v>5025.454345703125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9694065136068007</v>
       </c>
       <c r="E30" t="n">
-        <v>24137.71058238636</v>
+        <v>5025.067670036765</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9296875</v>
       </c>
       <c r="C31" t="n">
-        <v>23662.77734375</v>
+        <v>4876.02294921875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E31" t="n">
-        <v>23661.07350852273</v>
+        <v>4875.65958180147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C32" t="n">
-        <v>23194.95703125</v>
+        <v>4730.730712890625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9581801470588235</v>
       </c>
       <c r="E32" t="n">
-        <v>23193.36772017046</v>
+        <v>4730.343118106618</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22735.64453125</v>
+        <v>4589.24755859375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9656643902554232</v>
       </c>
       <c r="E33" t="n">
-        <v>22734.31622869318</v>
+        <v>4588.903578814338</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22285.529296875</v>
+        <v>4451.71923828125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9671087194891537</v>
       </c>
       <c r="E34" t="n">
-        <v>22283.79030539773</v>
+        <v>4451.292423023897</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9006696343421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21843.779296875</v>
+        <v>4317.899658203125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9533219547832713</v>
       </c>
       <c r="E35" t="n">
-        <v>21841.65571732954</v>
+        <v>4317.503303079044</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9375</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="C36" t="n">
-        <v>21409.4765625</v>
+        <v>4187.626953125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9964772733775052</v>
+        <v>0.9661896018420949</v>
       </c>
       <c r="E36" t="n">
-        <v>21407.75053267046</v>
+        <v>4187.292164522059</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20983.8017578125</v>
+        <v>4061.073120117188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9638918077244478</v>
       </c>
       <c r="E37" t="n">
-        <v>20981.95685369318</v>
+        <v>4060.698041130515</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9140625</v>
       </c>
       <c r="C38" t="n">
-        <v>20565.69921875</v>
+        <v>3937.848999023438</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9657956922755522</v>
       </c>
       <c r="E38" t="n">
-        <v>20564.05681818182</v>
+        <v>3937.52632410386</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C39" t="n">
-        <v>20154.9326171875</v>
+        <v>3818.057495117188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9722951685681063</v>
       </c>
       <c r="E39" t="n">
-        <v>20154.02201704546</v>
+        <v>3817.755485983456</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9185267984867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19753.32421875</v>
+        <v>3701.609497070312</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9583114490789526</v>
       </c>
       <c r="E40" t="n">
-        <v>19751.64612926136</v>
+        <v>3701.335205078125</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19358.0576171875</v>
+        <v>3588.333374023438</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9703256312538596</v>
       </c>
       <c r="E41" t="n">
-        <v>19356.85085227273</v>
+        <v>3588.091437844669</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18970.623046875</v>
+        <v>3478.281982421875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9705225825309753</v>
       </c>
       <c r="E42" t="n">
-        <v>18969.369140625</v>
+        <v>3478.012092141544</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18590.66796875</v>
+        <v>3371.431396484375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9529280452167287</v>
       </c>
       <c r="E43" t="n">
-        <v>18589.21040482954</v>
+        <v>3371.085233800552</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18217.296875</v>
+        <v>3267.2138671875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9685530452167287</v>
       </c>
       <c r="E44" t="n">
-        <v>18216.16157670454</v>
+        <v>3267.010483685662</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17851.27734375</v>
+        <v>3166.127563476562</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9663209038622239</v>
       </c>
       <c r="E45" t="n">
-        <v>17850.11985085227</v>
+        <v>3165.918212890625</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9296875</v>
       </c>
       <c r="C46" t="n">
-        <v>17492.0439453125</v>
+        <v>3067.853393554688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9712447489009184</v>
       </c>
       <c r="E46" t="n">
-        <v>17490.89737215909</v>
+        <v>3067.646613625919</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C47" t="n">
-        <v>17139.5869140625</v>
+        <v>2972.293212890625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E47" t="n">
-        <v>17138.44122869318</v>
+        <v>2972.127800436581</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9135044515132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16793.4423828125</v>
+        <v>2879.586669921875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9588366606656242</v>
       </c>
       <c r="E48" t="n">
-        <v>16792.607421875</v>
+        <v>2879.357177734375</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.921875</v>
       </c>
       <c r="C49" t="n">
-        <v>16454.4921875</v>
+        <v>2789.345825195312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.968618697979871</v>
       </c>
       <c r="E49" t="n">
-        <v>16453.31871448864</v>
+        <v>2789.134823069853</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.8850446343421936</v>
       </c>
       <c r="C50" t="n">
-        <v>16121.326171875</v>
+        <v>2701.813110351562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9250262590015635</v>
       </c>
       <c r="E50" t="n">
-        <v>16120.41219815341</v>
+        <v>2701.672305836397</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,927 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="C51" t="n">
-        <v>15794.61865234375</v>
+        <v>2616.53564453125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9583114490789526</v>
       </c>
       <c r="E51" t="n">
-        <v>15793.78462357955</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15474.376953125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15473.31338778409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15159.775390625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15158.92471590909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14851.47119140625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14850.44202769886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14548.744140625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14547.80397727273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14251.81591796875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14250.90651633523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13960.646484375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13959.6181640625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13674.5068359375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13673.83087713068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13394.54833984375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9931818246841431</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13393.51793323864</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13119.10302734375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13118.48810369318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12849.5009765625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12848.6884765625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12584.55078125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12584.04216974432</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12325.17333984375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12324.44833096591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12070.34033203125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12069.81942471591</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11820.74267578125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11820.04243607955</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11575.85205078125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11575.01518110795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11335.369140625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11334.68971946023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11099.494140625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11098.95747514205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10868.41796875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10867.74236505682</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10641.5146484375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10640.97611860795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10419.2568359375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10418.56898082386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10201.091796875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10200.44113991477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9987.064453125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9986.51065340909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9777.16357421875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9776.721058238636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9571.42919921875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9570.966974431818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9369.716796875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9369.201970880682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9171.7392578125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9171.322620738636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8977.8525390625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8977.299627130682</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8787.48779296875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8787.032492897728</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8600.92138671875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8600.474964488636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8417.90576171875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8417.53622159091</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6891891891891891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.722972972972973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7432432432432432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7567567567567568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7972972972972973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8243243243243243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.831081081081081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.918918918918919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.03260869565217391</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.918918918918919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.03260869565217391</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9391891891891891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9391891891891891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9932432432432432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9932432432432432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9876982961222093</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5326086956521739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5760869565217391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.006756756756756757</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.006756756756756757</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9456521739130435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.06081081081081081</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9456521739130435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.06081081081081081</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9673913043478261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9673913043478261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1756756756756757</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1756756756756757</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9891304347826086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.5202702702702703</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9891304347826086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5202702702702703</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9891304347826088</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2616.370964499081</v>
       </c>
     </row>
   </sheetData>
